--- a/data/quotes/edn.xlsx
+++ b/data/quotes/edn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H584"/>
+  <dimension ref="A1:H589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3042,13 +3042,13 @@
         <v>59</v>
       </c>
       <c r="F93" t="n">
-        <v>1254296</v>
+        <v>1275578.1</v>
       </c>
       <c r="G93" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="H93" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94">
@@ -16750,25 +16750,25 @@
         </is>
       </c>
       <c r="B583" t="n">
-        <v>1017.95</v>
+        <v>1034</v>
       </c>
       <c r="C583" t="n">
         <v>980</v>
       </c>
       <c r="D583" t="n">
-        <v>1025</v>
+        <v>1036.9</v>
       </c>
       <c r="E583" t="n">
         <v>978.95</v>
       </c>
       <c r="F583" t="n">
-        <v>103619428.7</v>
+        <v>289532561.7</v>
       </c>
       <c r="G583" t="n">
-        <v>2</v>
+        <v>283055</v>
       </c>
       <c r="H583" t="n">
-        <v>1175</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="584">
@@ -16797,6 +16797,146 @@
       </c>
       <c r="H584" t="n">
         <v>2516</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>2024-05-29</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>1109.9</v>
+      </c>
+      <c r="C585" t="n">
+        <v>1100.5</v>
+      </c>
+      <c r="D585" t="n">
+        <v>1111.3</v>
+      </c>
+      <c r="E585" t="n">
+        <v>1077.3</v>
+      </c>
+      <c r="F585" t="n">
+        <v>665269844.15</v>
+      </c>
+      <c r="G585" t="n">
+        <v>605148</v>
+      </c>
+      <c r="H585" t="n">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>2024-05-30</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>1135.5</v>
+      </c>
+      <c r="C586" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D586" t="n">
+        <v>1165</v>
+      </c>
+      <c r="E586" t="n">
+        <v>1106</v>
+      </c>
+      <c r="F586" t="n">
+        <v>825385513.45</v>
+      </c>
+      <c r="G586" t="n">
+        <v>728997</v>
+      </c>
+      <c r="H586" t="n">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>2024-05-31</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>1109</v>
+      </c>
+      <c r="C587" t="n">
+        <v>1139</v>
+      </c>
+      <c r="D587" t="n">
+        <v>1139</v>
+      </c>
+      <c r="E587" t="n">
+        <v>1093</v>
+      </c>
+      <c r="F587" t="n">
+        <v>763165653.8</v>
+      </c>
+      <c r="G587" t="n">
+        <v>685227</v>
+      </c>
+      <c r="H587" t="n">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>2024-06-03</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>1128</v>
+      </c>
+      <c r="C588" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D588" t="n">
+        <v>1150</v>
+      </c>
+      <c r="E588" t="n">
+        <v>1095.8</v>
+      </c>
+      <c r="F588" t="n">
+        <v>293258102.5</v>
+      </c>
+      <c r="G588" t="n">
+        <v>1</v>
+      </c>
+      <c r="H588" t="n">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>2024-06-04</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>1070</v>
+      </c>
+      <c r="C589" t="n">
+        <v>1105</v>
+      </c>
+      <c r="D589" t="n">
+        <v>1108.75</v>
+      </c>
+      <c r="E589" t="n">
+        <v>1059</v>
+      </c>
+      <c r="F589" t="n">
+        <v>454474081.55</v>
+      </c>
+      <c r="G589" t="n">
+        <v>423284</v>
+      </c>
+      <c r="H589" t="n">
+        <v>2494</v>
       </c>
     </row>
   </sheetData>

--- a/data/quotes/edn.xlsx
+++ b/data/quotes/edn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H589"/>
+  <dimension ref="A1:H595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3033,22 +3033,22 @@
         <v>59.9</v>
       </c>
       <c r="C93" t="n">
-        <v>60.4</v>
+        <v>60</v>
       </c>
       <c r="D93" t="n">
-        <v>61.1</v>
+        <v>61.2</v>
       </c>
       <c r="E93" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F93" t="n">
-        <v>1275578.1</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -16890,7 +16890,7 @@
         </is>
       </c>
       <c r="B588" t="n">
-        <v>1128</v>
+        <v>1115</v>
       </c>
       <c r="C588" t="n">
         <v>1150</v>
@@ -16902,13 +16902,13 @@
         <v>1095.8</v>
       </c>
       <c r="F588" t="n">
-        <v>293258102.5</v>
+        <v>490537652.8</v>
       </c>
       <c r="G588" t="n">
-        <v>1</v>
+        <v>436436</v>
       </c>
       <c r="H588" t="n">
-        <v>1257</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="589">
@@ -16937,6 +16937,174 @@
       </c>
       <c r="H589" t="n">
         <v>2494</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>2024-06-05</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>1081.1</v>
+      </c>
+      <c r="C590" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D590" t="n">
+        <v>1111.2</v>
+      </c>
+      <c r="E590" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F590" t="n">
+        <v>346978039.5</v>
+      </c>
+      <c r="G590" t="n">
+        <v>325503</v>
+      </c>
+      <c r="H590" t="n">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>2024-06-06</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>1022</v>
+      </c>
+      <c r="C591" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D591" t="n">
+        <v>1107.05</v>
+      </c>
+      <c r="E591" t="n">
+        <v>1022</v>
+      </c>
+      <c r="F591" t="n">
+        <v>313852347.05</v>
+      </c>
+      <c r="G591" t="n">
+        <v>298348</v>
+      </c>
+      <c r="H591" t="n">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>2024-06-07</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>1069.95</v>
+      </c>
+      <c r="C592" t="n">
+        <v>1038</v>
+      </c>
+      <c r="D592" t="n">
+        <v>1084</v>
+      </c>
+      <c r="E592" t="n">
+        <v>1038</v>
+      </c>
+      <c r="F592" t="n">
+        <v>283457307.75</v>
+      </c>
+      <c r="G592" t="n">
+        <v>265114</v>
+      </c>
+      <c r="H592" t="n">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>1083</v>
+      </c>
+      <c r="C593" t="n">
+        <v>1095</v>
+      </c>
+      <c r="D593" t="n">
+        <v>1095</v>
+      </c>
+      <c r="E593" t="n">
+        <v>1045</v>
+      </c>
+      <c r="F593" t="n">
+        <v>293871437.1</v>
+      </c>
+      <c r="G593" t="n">
+        <v>2</v>
+      </c>
+      <c r="H593" t="n">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>2024-06-11</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>1088</v>
+      </c>
+      <c r="C594" t="n">
+        <v>1110</v>
+      </c>
+      <c r="D594" t="n">
+        <v>1123.15</v>
+      </c>
+      <c r="E594" t="n">
+        <v>1085</v>
+      </c>
+      <c r="F594" t="n">
+        <v>81635623.84999999</v>
+      </c>
+      <c r="G594" t="n">
+        <v>11</v>
+      </c>
+      <c r="H594" t="n">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>2024-06-12</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>1090.6</v>
+      </c>
+      <c r="C595" t="n">
+        <v>1048</v>
+      </c>
+      <c r="D595" t="n">
+        <v>1107</v>
+      </c>
+      <c r="E595" t="n">
+        <v>1048</v>
+      </c>
+      <c r="F595" t="n">
+        <v>261230227.3</v>
+      </c>
+      <c r="G595" t="n">
+        <v>238398</v>
+      </c>
+      <c r="H595" t="n">
+        <v>1616</v>
       </c>
     </row>
   </sheetData>
